--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath\proiect\Mail_Trigger_Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53D96BB-F1D5-4178-B34F-D001BE550467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A1FC04-5C66-4F0D-9895-863FFB42BA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20745" yWindow="1800" windowWidth="19095" windowHeight="16950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -139,13 +139,22 @@
     <t>Verificare facturi</t>
   </si>
   <si>
-    <t>For sending the email</t>
-  </si>
-  <si>
     <t>The folder that needs to be checked in outlook</t>
   </si>
   <si>
     <t>emailSender</t>
+  </si>
+  <si>
+    <t>accountAdress</t>
+  </si>
+  <si>
+    <t>Account that is used tp receive the emails</t>
+  </si>
+  <si>
+    <t>Account from which the mails will come</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email subject </t>
   </si>
 </sst>
 </file>
@@ -197,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -207,6 +216,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1594,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -1727,7 +1737,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1738,15 +1748,29 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
